--- a/Change Request and Requirements/WebsiteChanges.xlsx
+++ b/Change Request and Requirements/WebsiteChanges.xlsx
@@ -1,30 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19001"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hi\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8772"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="8775"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>Activity</t>
   </si>
@@ -114,12 +104,27 @@
   </si>
   <si>
     <t>As of now we can remove the Blog screen as well</t>
+  </si>
+  <si>
+    <t>Account</t>
+  </si>
+  <si>
+    <t>As of now hide Account button</t>
+  </si>
+  <si>
+    <t>Course Contents</t>
+  </si>
+  <si>
+    <t>Place the suitable image in the background with respect to courses</t>
+  </si>
+  <si>
+    <t xml:space="preserve">For Exmaple, If we choose AWS, then background image should be AWS </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -167,11 +172,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -184,9 +193,6 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -481,7 +487,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -489,22 +495,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18:E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
@@ -518,7 +524,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -532,7 +538,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -549,22 +555,22 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="E4" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="E5" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="E6" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="D8" s="3" t="s">
         <v>12</v>
       </c>
@@ -572,17 +578,17 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="E9" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="E10" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>3</v>
       </c>
@@ -593,7 +599,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" ht="28.9" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>4</v>
       </c>
@@ -605,7 +611,7 @@
       </c>
       <c r="D13" s="4"/>
     </row>
-    <row r="14" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" ht="28.9" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>5</v>
       </c>
@@ -617,7 +623,7 @@
       </c>
       <c r="D14" s="4"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>6</v>
       </c>
@@ -628,7 +634,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" ht="43.15" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>7</v>
       </c>
@@ -642,7 +648,7 @@
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
     </row>
-    <row r="17" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>8</v>
       </c>
@@ -651,6 +657,34 @@
       </c>
       <c r="C17" s="4" t="s">
         <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="5">
+        <v>9</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D18" s="6"/>
+      <c r="E18" s="5"/>
+    </row>
+    <row r="19" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+      <c r="A19" s="5">
+        <v>10</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/Change Request and Requirements/WebsiteChanges.xlsx
+++ b/Change Request and Requirements/WebsiteChanges.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="8775"/>
@@ -9,12 +9,12 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t>Activity</t>
   </si>
@@ -119,6 +119,19 @@
   </si>
   <si>
     <t xml:space="preserve">For Exmaple, If we choose AWS, then background image should be AWS </t>
+  </si>
+  <si>
+    <t>Course Description</t>
+  </si>
+  <si>
+    <t>Place background images against the courses in course description screen.</t>
+  </si>
+  <si>
+    <t>Site - Color Change</t>
+  </si>
+  <si>
+    <t>Now we have changed the logo color.
+So we need to change the site color also.</t>
   </si>
 </sst>
 </file>
@@ -487,7 +500,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -495,17 +508,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18:E19"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="46" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="23.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.5703125" bestFit="1" customWidth="1"/>
   </cols>
@@ -687,6 +700,28 @@
         <v>34</v>
       </c>
     </row>
+    <row r="20" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>11</v>
+      </c>
+      <c r="B20" t="s">
+        <v>35</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>12</v>
+      </c>
+      <c r="B21" t="s">
+        <v>37</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Change Request and Requirements/WebsiteChanges.xlsx
+++ b/Change Request and Requirements/WebsiteChanges.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\inetsolution\SVN\Change Request and Requirements\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="8775"/>
   </bookViews>
@@ -14,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="44">
   <si>
     <t>Activity</t>
   </si>
@@ -132,13 +137,52 @@
   <si>
     <t>Now we have changed the logo color.
 So we need to change the site color also.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">I added data to json file - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Done</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">I Renamed inet solution to </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>nubekins</t>
+    </r>
+  </si>
+  <si>
+    <t>Pending</t>
+  </si>
+  <si>
+    <t>pending</t>
+  </si>
+  <si>
+    <t>Done</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -152,8 +196,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -172,6 +230,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -185,7 +249,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -197,6 +261,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -206,6 +273,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -500,7 +570,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -508,10 +578,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -521,9 +591,10 @@
     <col min="3" max="3" width="46" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="23.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="43.85546875" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
@@ -536,8 +607,9 @@
       <c r="D1" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="G1" s="8"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -550,8 +622,11 @@
       <c r="D2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="G2" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -567,41 +642,62 @@
       <c r="E3" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="G3" s="7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E4" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="G4" s="7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E5" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="G5" s="7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E6" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="G6" s="7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D8" s="3" t="s">
         <v>12</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="G8" s="7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E9" s="3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="G9" s="7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E10" s="3" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="G10" s="7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>3</v>
       </c>
@@ -611,8 +707,11 @@
       <c r="C12" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" ht="28.9" x14ac:dyDescent="0.3">
+      <c r="G12" s="7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>4</v>
       </c>
@@ -623,8 +722,11 @@
         <v>21</v>
       </c>
       <c r="D13" s="4"/>
-    </row>
-    <row r="14" spans="1:6" ht="28.9" x14ac:dyDescent="0.3">
+      <c r="G13" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>5</v>
       </c>
@@ -635,8 +737,11 @@
         <v>23</v>
       </c>
       <c r="D14" s="4"/>
-    </row>
-    <row r="15" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="G14" s="9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>6</v>
       </c>
@@ -646,8 +751,11 @@
       <c r="C15" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" ht="43.15" x14ac:dyDescent="0.3">
+      <c r="G15" s="9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>7</v>
       </c>
@@ -660,8 +768,11 @@
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
-    </row>
-    <row r="17" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="G16" s="9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>8</v>
       </c>
@@ -671,8 +782,11 @@
       <c r="C17" s="4" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G17" s="9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
         <v>9</v>
       </c>
@@ -684,8 +798,11 @@
       </c>
       <c r="D18" s="6"/>
       <c r="E18" s="5"/>
-    </row>
-    <row r="19" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+      <c r="G18" s="9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="105" x14ac:dyDescent="0.25">
       <c r="A19" s="5">
         <v>10</v>
       </c>
@@ -699,8 +816,11 @@
       <c r="E19" s="6" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="G19" s="9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>11</v>
       </c>
@@ -710,8 +830,11 @@
       <c r="C20" s="6" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="G20" s="9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>12</v>
       </c>
@@ -721,8 +844,12 @@
       <c r="C21" s="6" t="s">
         <v>38</v>
       </c>
+      <c r="G21" s="7" t="s">
+        <v>41</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Change Request and Requirements/WebsiteChanges.xlsx
+++ b/Change Request and Requirements/WebsiteChanges.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\inetsolution\SVN\Change Request and Requirements\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="8775"/>
   </bookViews>
@@ -19,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="52">
   <si>
     <t>Activity</t>
   </si>
@@ -177,12 +172,38 @@
   <si>
     <t>Done</t>
   </si>
+  <si>
+    <t>Right Hand side Sroll bar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Please increase the size of the scroll bar and Some times right hand side scroll bar is not working </t>
+  </si>
+  <si>
+    <t>Dropdow</t>
+  </si>
+  <si>
+    <t>When user click the drop down, it should not hide in the bottom, so scroll bar will be adjusted automatically when click the drop down it will show all the drop down values</t>
+  </si>
+  <si>
+    <t>Scroll bar issue</t>
+  </si>
+  <si>
+    <t>Sometimes right hand scroll bar is not working. 
+Not sure what is the issue</t>
+  </si>
+  <si>
+    <t>Kinldy set static height 
+(Atleast ten rows will be visible for users).</t>
+  </si>
+  <si>
+    <t>Light green color</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -209,6 +230,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF222222"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -249,7 +276,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -264,6 +291,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -274,11 +308,51 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>93659</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>56568</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4591050" y="7400925"/>
+          <a:ext cx="12723809" cy="4800018"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -570,7 +644,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -578,10 +652,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -844,12 +918,52 @@
       <c r="C21" s="6" t="s">
         <v>38</v>
       </c>
+      <c r="D21" t="s">
+        <v>51</v>
+      </c>
       <c r="G21" s="7" t="s">
         <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A22" s="10">
+        <v>13</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>14</v>
+      </c>
+      <c r="B23" t="s">
+        <v>48</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A24" s="10">
+        <v>15</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="C24" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="D24" s="11" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Change Request and Requirements/WebsiteChanges.xlsx
+++ b/Change Request and Requirements/WebsiteChanges.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="56">
   <si>
     <t>Activity</t>
   </si>
@@ -197,6 +197,18 @@
   </si>
   <si>
     <t>Light green color</t>
+  </si>
+  <si>
+    <t>Tab icon changes</t>
+  </si>
+  <si>
+    <t>Need to chagne tab icon</t>
+  </si>
+  <si>
+    <t>Document for JSON</t>
+  </si>
+  <si>
+    <t>Need to create a document for JSON data add.</t>
   </si>
 </sst>
 </file>
@@ -318,13 +330,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>93659</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>56568</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -644,7 +656,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -652,10 +664,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G24"/>
+  <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -772,15 +784,18 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12">
+      <c r="A12" s="7">
         <v>3</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="7" t="s">
         <v>18</v>
       </c>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
       <c r="G12" s="7" t="s">
         <v>41</v>
       </c>
@@ -947,17 +962,41 @@
         <v>49</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="10">
         <v>15</v>
       </c>
       <c r="B24" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="C24" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="G24" s="7"/>
+    </row>
+    <row r="25" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="10">
+        <v>16</v>
+      </c>
+      <c r="B25" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="C25" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="G25" s="7"/>
+    </row>
+    <row r="26" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A26" s="10">
+        <v>17</v>
+      </c>
+      <c r="B26" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="C24" s="11" t="s">
+      <c r="C26" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="D24" s="11" t="s">
+      <c r="D26" s="11" t="s">
         <v>50</v>
       </c>
     </row>

--- a/Change Request and Requirements/WebsiteChanges.xlsx
+++ b/Change Request and Requirements/WebsiteChanges.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="64">
   <si>
     <t>Activity</t>
   </si>
@@ -192,23 +192,51 @@
 Not sure what is the issue</t>
   </si>
   <si>
+    <t>Light green color</t>
+  </si>
+  <si>
+    <t>Tab icon changes</t>
+  </si>
+  <si>
+    <t>Need to chagne tab icon</t>
+  </si>
+  <si>
+    <t>Document for JSON</t>
+  </si>
+  <si>
+    <t>Need to create a document for JSON data add.</t>
+  </si>
+  <si>
+    <t>List of courses in Home page</t>
+  </si>
+  <si>
+    <t>When I load the website in very first time, list of courses is not populated. I attached the screenshot for your reference</t>
+  </si>
+  <si>
     <t>Kinldy set static height 
-(Atleast ten rows will be visible for users).</t>
-  </si>
-  <si>
-    <t>Light green color</t>
-  </si>
-  <si>
-    <t>Tab icon changes</t>
-  </si>
-  <si>
-    <t>Need to chagne tab icon</t>
-  </si>
-  <si>
-    <t>Document for JSON</t>
-  </si>
-  <si>
-    <t>Need to create a document for JSON data add.</t>
+(Atleast ten rows will be visible for users).
+Refer below screen shot</t>
+  </si>
+  <si>
+    <t>Refer below screen shot</t>
+  </si>
+  <si>
+    <t>Course Description
+Screen</t>
+  </si>
+  <si>
+    <t>1) Remove the courese features section
+2) Directly shows the description rather than using more button</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I try to reproduce the issue, as of now its working fine </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Can not Reproduce</t>
+  </si>
+  <si>
+    <t>They will change.
+Only specify path and image name for logo as well tab icon.</t>
   </si>
 </sst>
 </file>
@@ -288,7 +316,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -310,6 +338,17 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -328,20 +367,20 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>93659</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>56568</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>74609</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>37518</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPr id="7" name="Picture 6"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -354,8 +393,46 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4591050" y="7400925"/>
+          <a:off x="1524000" y="8524875"/>
           <a:ext cx="12723809" cy="4800018"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>246114</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>75619</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1524000" y="13668375"/>
+          <a:ext cx="12285714" cy="4647619"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -656,7 +733,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -664,10 +741,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G26"/>
+  <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -934,7 +1011,7 @@
         <v>38</v>
       </c>
       <c r="D21" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G21" s="7" t="s">
         <v>41</v>
@@ -951,7 +1028,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>14</v>
       </c>
@@ -961,16 +1038,25 @@
       <c r="C23" s="12" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D23" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" s="10" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A24" s="10">
         <v>15</v>
       </c>
       <c r="B24" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="C24" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="C24" s="12" t="s">
-        <v>53</v>
+      <c r="D24" s="14" t="s">
+        <v>63</v>
       </c>
       <c r="G24" s="7"/>
     </row>
@@ -979,25 +1065,51 @@
         <v>16</v>
       </c>
       <c r="B25" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="C25" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="C25" s="12" t="s">
+      <c r="G25" s="7"/>
+    </row>
+    <row r="26" spans="1:7" s="13" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A26" s="13">
+        <v>17</v>
+      </c>
+      <c r="B26" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="C26" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="G26" s="15"/>
+    </row>
+    <row r="27" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A27" s="10">
+        <v>18</v>
+      </c>
+      <c r="B27" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="C27" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="D27" s="11" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A28" s="13">
+        <v>19</v>
+      </c>
+      <c r="B28" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="G25" s="7"/>
-    </row>
-    <row r="26" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A26" s="10">
-        <v>17</v>
-      </c>
-      <c r="B26" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="C26" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="D26" s="11" t="s">
-        <v>50</v>
+      <c r="C28" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="D28" s="13" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>

--- a/Change Request and Requirements/WebsiteChanges.xlsx
+++ b/Change Request and Requirements/WebsiteChanges.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\inetsolution\SVN\Change Request and Requirements\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="8775"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="8775" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Json" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="74">
   <si>
     <t>Activity</t>
   </si>
@@ -232,17 +238,47 @@
     <t xml:space="preserve">I try to reproduce the issue, as of now its working fine </t>
   </si>
   <si>
-    <t xml:space="preserve"> Can not Reproduce</t>
-  </si>
-  <si>
     <t>They will change.
 Only specify path and image name for logo as well tab icon.</t>
+  </si>
+  <si>
+    <t>Totally Three (3) Object Created.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.courses - Courses Having sub Courses </t>
+  </si>
+  <si>
+    <t>PrimaryKey</t>
+  </si>
+  <si>
+    <t>foreign key</t>
+  </si>
+  <si>
+    <t>CoureseID(ID)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">featureid(ID) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.lecturers - </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.features - </t>
+  </si>
+  <si>
+    <t>featureid(ID) ,lecturersid(ID)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. courses --&gt;  parent Course --&gt; id --&gt; Primary,                                           2.label --&gt;    parent Course  label                                                                                  5.htmlcontent  : create html page link here - this should come courese details screen         .                                                                                7.    courese details screen header image .   8.featureid -- &gt; featureid object key   9.lecturesid --&gt; current course having lecturers get from lecturer object based on key (ID)                    </t>
+  </si>
+  <si>
+    <t>image1--&gt; lecturer image.                                                                        Url: ---&gt; Redirect url</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -278,7 +314,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -303,6 +339,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -316,7 +364,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -342,11 +390,38 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -358,6 +433,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -441,6 +519,190 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>4000501</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>2400300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9667876" y="400050"/>
+          <a:ext cx="4000500" cy="2286000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>3123809</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>1924051</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9667875" y="2876550"/>
+          <a:ext cx="3123809" cy="1781176"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>18537</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>1828596</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9705975" y="4914900"/>
+          <a:ext cx="4104762" cy="1628571"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>3</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>2609850</xdr:colOff>
+          <xdr:row>3</xdr:row>
+          <xdr:rowOff>933450</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2049" name="Object 1" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2049"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd type="none" w="med" len="med"/>
+            </a:ln>
+            <a:effectLst/>
+            <a:extLst>
+              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+                <a14:hiddenEffects>
+                  <a:effectLst>
+                    <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                      <a:srgbClr val="808080"/>
+                    </a:outerShdw>
+                  </a:effectLst>
+                </a14:hiddenEffects>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
 </xdr:wsDr>
 </file>
 
@@ -733,7 +995,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -743,8 +1005,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+    <sheetView topLeftCell="B55" workbookViewId="0">
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1013,8 +1275,8 @@
       <c r="D21" t="s">
         <v>50</v>
       </c>
-      <c r="G21" s="7" t="s">
-        <v>41</v>
+      <c r="G21" s="9" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -1027,6 +1289,9 @@
       <c r="C22" s="11" t="s">
         <v>45</v>
       </c>
+      <c r="G22" s="9" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="23" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A23">
@@ -1038,11 +1303,11 @@
       <c r="C23" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="D23" s="17" t="s">
+      <c r="D23" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="G23" s="7" t="s">
-        <v>62</v>
+      <c r="G23" s="9" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="24" spans="1:7" s="10" customFormat="1" ht="60" x14ac:dyDescent="0.25">
@@ -1056,9 +1321,11 @@
         <v>52</v>
       </c>
       <c r="D24" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="G24" s="7"/>
+        <v>62</v>
+      </c>
+      <c r="G24" s="9" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="25" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="10">
@@ -1070,7 +1337,9 @@
       <c r="C25" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="G25" s="7"/>
+      <c r="G25" s="9" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="26" spans="1:7" s="13" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A26" s="13">
@@ -1079,10 +1348,12 @@
       <c r="B26" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="C26" s="16" t="s">
+      <c r="C26" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="G26" s="15"/>
+      <c r="G26" s="9" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="27" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A27" s="10">
@@ -1097,6 +1368,9 @@
       <c r="D27" s="11" t="s">
         <v>57</v>
       </c>
+      <c r="G27" s="9" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="28" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A28" s="13">
@@ -1110,6 +1384,9 @@
       </c>
       <c r="D28" s="13" t="s">
         <v>58</v>
+      </c>
+      <c r="G28" s="9" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -1117,4 +1394,98 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="83" style="16" customWidth="1"/>
+    <col min="2" max="2" width="31.42578125" customWidth="1"/>
+    <col min="3" max="3" width="30.5703125" customWidth="1"/>
+    <col min="4" max="4" width="61.85546875" customWidth="1"/>
+    <col min="5" max="5" width="59.7109375" style="16" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="D1" s="22"/>
+    </row>
+    <row r="2" spans="1:5" s="18" customFormat="1" ht="192.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="B2" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="C2" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="E2" s="17" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="156" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="B3" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="C3" s="25"/>
+    </row>
+    <row r="4" spans="1:5" ht="187.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="E4" s="26" t="s">
+        <v>73</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+  <oleObjects>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="StaticDib" shapeId="2049" r:id="rId3">
+          <objectPr defaultSize="0" r:id="rId4">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>2609850</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>933450</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="StaticDib" shapeId="2049" r:id="rId3"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+  </oleObjects>
+</worksheet>
 </file>